--- a/Research/AspektVergleich.xlsx
+++ b/Research/AspektVergleich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwolpers\Bachelorarbeit\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE157324-E8F4-4860-B5B2-FD1EC27F5562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589CE161-309C-485E-AD28-9D0A4DCF3CA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23640" windowHeight="7980" xr2:uid="{65CEA5B8-29B4-4704-9E67-E1B48F49D86F}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Research/AspektVergleich.xlsx
+++ b/Research/AspektVergleich.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwolpers\Bachelorarbeit\Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Bachelorarbeit\GraphQL-\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589CE161-309C-485E-AD28-9D0A4DCF3CA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF40D44-D9B6-447A-A597-A3CF266D2661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23640" windowHeight="7980" xr2:uid="{65CEA5B8-29B4-4704-9E67-E1B48F49D86F}"/>
+    <workbookView xWindow="2952" yWindow="2136" windowWidth="17280" windowHeight="8964" xr2:uid="{65CEA5B8-29B4-4704-9E67-E1B48F49D86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -78,18 +78,12 @@
     <t>Backend muss wahrscheinlich mit angepasst werden</t>
   </si>
   <si>
-    <t>Kann wahrscheinlich ohne Anpassung des Backends passieren</t>
-  </si>
-  <si>
     <t>Links</t>
   </si>
   <si>
     <t>https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;</t>
   </si>
   <si>
-    <t>REST, vor allem bei kleinen Projekten, wo die Entwickler noch keine Erfahrung mit GraphQL haben</t>
-  </si>
-  <si>
     <t>Hochladen von Daten?</t>
   </si>
   <si>
@@ -120,28 +114,34 @@
     <t>https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html; https://medium.com/paypal-engineering/scaling-graphql-at-paypal-b5b5ac098810</t>
   </si>
   <si>
-    <t>Dauer einen Lauffähigen Prototypen zu schreiben</t>
-  </si>
-  <si>
-    <t>Schnell und einfach</t>
-  </si>
-  <si>
-    <t>Aufwändig</t>
-  </si>
-  <si>
-    <t>n+1 problematik</t>
-  </si>
-  <si>
-    <t>Anfrage an server nach liste, dann n anfrage für jedes element</t>
-  </si>
-  <si>
-    <t>Mögliches Overfetching</t>
-  </si>
-  <si>
     <t>https://medium.com/paypal-engineering/graphql-resolvers-best-practices-cd36fdbcef55</t>
   </si>
   <si>
-    <t>auch verschiedene Endpunkte, macht es aber auch einfacher, Versionierung komplett zu vermeiden, möglichkeit gena zu erkennen welche felder benötigt werden</t>
+    <t>leichter Vorteil GraphQL, aber eher unentschieden</t>
+  </si>
+  <si>
+    <t>n+1 problematik(rest anfragen)</t>
+  </si>
+  <si>
+    <t>N+1 problematik kann auch entstehen(datenbankanfragen)</t>
+  </si>
+  <si>
+    <t>auch verschiedene Endpunkte, macht es aber auch einfacher, Versionierung komplett zu vermeiden, Möglichkeit genau zu erkennen welche felder benötigt werden</t>
+  </si>
+  <si>
+    <t>Kann wahrscheinlich ohne Anpassung des Backends passieren, Type System ermöglicht unabhängige Arbeit</t>
+  </si>
+  <si>
+    <t>https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html; https://www.howtographql.com/basics/1-graphql-is-the-better-rest/</t>
+  </si>
+  <si>
+    <t>Flexible Anpassung des Frontends</t>
+  </si>
+  <si>
+    <t>Änderung des Backends wahrscheinlich nötig</t>
+  </si>
+  <si>
+    <t>Schnell, Änderung des Backends wahrscheinlich nicht nötig</t>
   </si>
 </sst>
 </file>
@@ -515,21 +515,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2203CF-FCF6-4238-B1CD-6DDE425CADA5}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" customWidth="1"/>
-    <col min="5" max="5" width="75.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="62.44140625" customWidth="1"/>
+    <col min="5" max="5" width="75.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -541,11 +541,11 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -559,11 +559,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -577,11 +577,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -595,11 +595,11 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -607,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -615,7 +615,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -623,99 +623,97 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -723,7 +721,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -731,7 +729,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -739,7 +737,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -747,7 +745,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -755,7 +753,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -763,7 +761,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -771,15 +769,14 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -787,7 +784,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -795,7 +792,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -803,7 +800,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -811,25 +808,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{A1E610CB-1F74-4E4A-9700-4FB6CCBC2B53}"/>
+    <hyperlink ref="E6" r:id="rId1" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{A1E610CB-1F74-4E4A-9700-4FB6CCBC2B53}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{AACA2E41-80F1-4879-A331-3118E519859E}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{FBE89555-8532-4244-B465-91788320B8B6}"/>
     <hyperlink ref="E4" r:id="rId4" xr:uid="{626DC3E6-78AA-4010-BA55-77D33F0634BB}"/>

--- a/Research/AspektVergleich.xlsx
+++ b/Research/AspektVergleich.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwolpers\Bachelorarbeit\Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Bachelorarbeit\GraphQL-\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589CE161-309C-485E-AD28-9D0A4DCF3CA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AE253-1709-4A04-9DC6-CF70998A7A00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23640" windowHeight="7980" xr2:uid="{65CEA5B8-29B4-4704-9E67-E1B48F49D86F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{65CEA5B8-29B4-4704-9E67-E1B48F49D86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;</t>
   </si>
   <si>
-    <t>REST, vor allem bei kleinen Projekten, wo die Entwickler noch keine Erfahrung mit GraphQL haben</t>
-  </si>
-  <si>
     <t>Hochladen von Daten?</t>
   </si>
   <si>
@@ -120,15 +117,6 @@
     <t>https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html; https://medium.com/paypal-engineering/scaling-graphql-at-paypal-b5b5ac098810</t>
   </si>
   <si>
-    <t>Dauer einen Lauffähigen Prototypen zu schreiben</t>
-  </si>
-  <si>
-    <t>Schnell und einfach</t>
-  </si>
-  <si>
-    <t>Aufwändig</t>
-  </si>
-  <si>
     <t>n+1 problematik</t>
   </si>
   <si>
@@ -142,6 +130,18 @@
   </si>
   <si>
     <t>auch verschiedene Endpunkte, macht es aber auch einfacher, Versionierung komplett zu vermeiden, möglichkeit gena zu erkennen welche felder benötigt werden</t>
+  </si>
+  <si>
+    <t>Streaming</t>
+  </si>
+  <si>
+    <t>Automatische Dokumentation?</t>
+  </si>
+  <si>
+    <t>Underfetching muss auch getestet werden</t>
+  </si>
+  <si>
+    <t>Paginierung</t>
   </si>
 </sst>
 </file>
@@ -518,18 +518,19 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" customWidth="1"/>
-    <col min="5" max="5" width="75.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="62.44140625" customWidth="1"/>
+    <col min="5" max="5" width="75.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -545,193 +546,193 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -739,7 +740,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -747,7 +748,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -755,7 +756,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -763,7 +764,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -771,7 +772,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -779,7 +780,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -787,7 +788,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -795,7 +796,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -803,7 +804,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -811,7 +812,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -819,7 +820,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -829,14 +830,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{A1E610CB-1F74-4E4A-9700-4FB6CCBC2B53}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{AACA2E41-80F1-4879-A331-3118E519859E}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{FBE89555-8532-4244-B465-91788320B8B6}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{626DC3E6-78AA-4010-BA55-77D33F0634BB}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{3918E471-D9F1-4828-B544-C0243E088B83}"/>
-    <hyperlink ref="E9" r:id="rId6" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{40F0907E-A9B5-4645-A630-444D03B702DD}"/>
-    <hyperlink ref="E10" r:id="rId7" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{7BE63C27-D55D-4582-8408-515D2E7DF3AE}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{FF1B2000-99D8-44AB-8A93-14EF25B795CC}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{A1E610CB-1F74-4E4A-9700-4FB6CCBC2B53}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{AACA2E41-80F1-4879-A331-3118E519859E}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{626DC3E6-78AA-4010-BA55-77D33F0634BB}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{3918E471-D9F1-4828-B544-C0243E088B83}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{40F0907E-A9B5-4645-A630-444D03B702DD}"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{7BE63C27-D55D-4582-8408-515D2E7DF3AE}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{FF1B2000-99D8-44AB-8A93-14EF25B795CC}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{FBE89555-8532-4244-B465-91788320B8B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/Research/AspektVergleich.xlsx
+++ b/Research/AspektVergleich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Bachelorarbeit\GraphQL-\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AE253-1709-4A04-9DC6-CF70998A7A00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478CAA62-81C8-4EA2-8DEF-FB2DF22C1E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{65CEA5B8-29B4-4704-9E67-E1B48F49D86F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>REST</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Paginierung</t>
+  </si>
+  <si>
+    <t>Verbreitung und Ausgereiftheit</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,7 +736,9 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>

--- a/Research/AspektVergleich.xlsx
+++ b/Research/AspektVergleich.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Bachelorarbeit\GraphQL-\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF40D44-D9B6-447A-A597-A3CF266D2661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2B84D6-04C0-4956-84F7-5D0B6BED06A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="2136" windowWidth="17280" windowHeight="8964" xr2:uid="{65CEA5B8-29B4-4704-9E67-E1B48F49D86F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{65CEA5B8-29B4-4704-9E67-E1B48F49D86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>REST</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Autorisation?</t>
   </si>
   <si>
-    <t>Skalierbarkeit?</t>
-  </si>
-  <si>
     <t>Implementierungsaufwand</t>
   </si>
   <si>
@@ -126,22 +123,31 @@
     <t>N+1 problematik kann auch entstehen(datenbankanfragen)</t>
   </si>
   <si>
-    <t>auch verschiedene Endpunkte, macht es aber auch einfacher, Versionierung komplett zu vermeiden, Möglichkeit genau zu erkennen welche felder benötigt werden</t>
-  </si>
-  <si>
-    <t>Kann wahrscheinlich ohne Anpassung des Backends passieren, Type System ermöglicht unabhängige Arbeit</t>
-  </si>
-  <si>
-    <t>https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html; https://www.howtographql.com/basics/1-graphql-is-the-better-rest/</t>
-  </si>
-  <si>
-    <t>Flexible Anpassung des Frontends</t>
-  </si>
-  <si>
-    <t>Änderung des Backends wahrscheinlich nötig</t>
-  </si>
-  <si>
-    <t>Schnell, Änderung des Backends wahrscheinlich nicht nötig</t>
+    <t>Underfetching muss auch getestet werden</t>
+  </si>
+  <si>
+    <t>Kann wahrscheinlich ohne Anpassung des Backends passieren</t>
+  </si>
+  <si>
+    <t>auch verschiedene Endpunkte, macht es aber auch einfacher, Versionierung komplett zu vermeiden, möglichkeit gena zu erkennen welche felder benötigt werden</t>
+  </si>
+  <si>
+    <t>Automatische Dokumentation?</t>
+  </si>
+  <si>
+    <t>Paginierung</t>
+  </si>
+  <si>
+    <t>Streaming</t>
+  </si>
+  <si>
+    <t>Verbreitung und Ausgereiftheit</t>
+  </si>
+  <si>
+    <t>Type System</t>
+  </si>
+  <si>
+    <t>Skalierbarkeit?/Anfragen-Batching</t>
   </si>
 </sst>
 </file>
@@ -517,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2203CF-FCF6-4238-B1CD-6DDE425CADA5}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,36 +551,38 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
@@ -583,97 +591,101 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -682,47 +694,43 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -730,7 +738,9 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -738,7 +748,9 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -810,14 +822,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{A1E610CB-1F74-4E4A-9700-4FB6CCBC2B53}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{AACA2E41-80F1-4879-A331-3118E519859E}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{FBE89555-8532-4244-B465-91788320B8B6}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{626DC3E6-78AA-4010-BA55-77D33F0634BB}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{3918E471-D9F1-4828-B544-C0243E088B83}"/>
-    <hyperlink ref="E9" r:id="rId6" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{40F0907E-A9B5-4645-A630-444D03B702DD}"/>
-    <hyperlink ref="E10" r:id="rId7" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{7BE63C27-D55D-4582-8408-515D2E7DF3AE}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{FF1B2000-99D8-44AB-8A93-14EF25B795CC}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{38ED40DE-FB1F-4B65-99C2-2B74C9F02EC9}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{179758B8-480C-464E-8665-A8C65080CAB8}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{52C6DFB9-A69B-4E5F-B86B-E36D4AC25BF1}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{FCEA2512-690C-49BA-AB3C-34D52FB0C366}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{5AC52E2F-8725-4547-B7D4-8A47FDA91415}"/>
+    <hyperlink ref="E10" r:id="rId6" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{8D90F8B7-0064-472E-A692-30334CC04599}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{341BCB8B-FC1F-49C1-B69A-CE0EAA4BEEC4}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{7FA7FB0B-9EC7-43FB-8DC8-CA90F4560696}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/Research/AspektVergleich.xlsx
+++ b/Research/AspektVergleich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Bachelorarbeit\GraphQL-\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2B84D6-04C0-4956-84F7-5D0B6BED06A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B9FD1-EE94-4ADB-9DC4-6A62D9A02A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{65CEA5B8-29B4-4704-9E67-E1B48F49D86F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>REST</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Automatische Dokumentation?</t>
   </si>
   <si>
-    <t>Paginierung</t>
-  </si>
-  <si>
     <t>Streaming</t>
   </si>
   <si>
@@ -148,6 +145,24 @@
   </si>
   <si>
     <t>Skalierbarkeit?/Anfragen-Batching</t>
+  </si>
+  <si>
+    <t>Paginierung/Sortierung/Filterung</t>
+  </si>
+  <si>
+    <t>Bei beiden gut möglich</t>
+  </si>
+  <si>
+    <t>Zustandlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank Performance </t>
+  </si>
+  <si>
+    <t>Wahl der Datenbank entscheidend?</t>
+  </si>
+  <si>
+    <t>PWA wichtig, Service Worker</t>
   </si>
 </sst>
 </file>
@@ -524,7 +539,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,6 +548,7 @@
     <col min="2" max="3" width="60.6640625" customWidth="1"/>
     <col min="4" max="4" width="62.44140625" customWidth="1"/>
     <col min="5" max="5" width="75.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -551,7 +567,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -587,159 +603,165 @@
       <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -749,16 +771,20 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -822,13 +848,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{38ED40DE-FB1F-4B65-99C2-2B74C9F02EC9}"/>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{38ED40DE-FB1F-4B65-99C2-2B74C9F02EC9}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{179758B8-480C-464E-8665-A8C65080CAB8}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{52C6DFB9-A69B-4E5F-B86B-E36D4AC25BF1}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{FCEA2512-690C-49BA-AB3C-34D52FB0C366}"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{5AC52E2F-8725-4547-B7D4-8A47FDA91415}"/>
-    <hyperlink ref="E10" r:id="rId6" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{8D90F8B7-0064-472E-A692-30334CC04599}"/>
-    <hyperlink ref="E4" r:id="rId7" xr:uid="{341BCB8B-FC1F-49C1-B69A-CE0EAA4BEEC4}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{52C6DFB9-A69B-4E5F-B86B-E36D4AC25BF1}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{FCEA2512-690C-49BA-AB3C-34D52FB0C366}"/>
+    <hyperlink ref="E5" r:id="rId5" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{5AC52E2F-8725-4547-B7D4-8A47FDA91415}"/>
+    <hyperlink ref="E9" r:id="rId6" display="https://www.dev-insider.de/graphql-als-alternative-zu-rest-a-752074/index2.html;" xr:uid="{8D90F8B7-0064-472E-A692-30334CC04599}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{341BCB8B-FC1F-49C1-B69A-CE0EAA4BEEC4}"/>
     <hyperlink ref="E3" r:id="rId8" xr:uid="{7FA7FB0B-9EC7-43FB-8DC8-CA90F4560696}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Research/AspektVergleich.xlsx
+++ b/Research/AspektVergleich.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Bachelorarbeit\GraphQL-\Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Bachelorarbeit\graphql-api-signalk\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B9FD1-EE94-4ADB-9DC4-6A62D9A02A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724EEA3-892F-41E5-ACFC-67655813B3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{65CEA5B8-29B4-4704-9E67-E1B48F49D86F}"/>
+    <workbookView xWindow="45" yWindow="30" windowWidth="15330" windowHeight="10890" xr2:uid="{65CEA5B8-29B4-4704-9E67-E1B48F49D86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>REST</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>PWA wichtig, Service Worker</t>
+  </si>
+  <si>
+    <t>Validierung</t>
+  </si>
+  <si>
+    <t>Microservice</t>
   </si>
 </sst>
 </file>
@@ -538,20 +544,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2203CF-FCF6-4238-B1CD-6DDE425CADA5}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.109375" customWidth="1"/>
-    <col min="2" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="4" width="62.44140625" customWidth="1"/>
-    <col min="5" max="5" width="75.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" customWidth="1"/>
+    <col min="5" max="5" width="75.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -567,7 +573,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -587,7 +593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -607,7 +613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -617,7 +623,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -629,7 +635,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -649,7 +655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -661,7 +667,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -679,7 +685,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -697,7 +703,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -707,7 +713,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -725,7 +731,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -743,7 +749,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -759,7 +765,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -769,7 +775,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -781,7 +787,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -791,7 +797,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -799,22 +805,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -822,7 +832,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -830,7 +840,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -838,7 +848,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
